--- a/for_git/FORMULAS CONTAR.xlsx
+++ b/for_git/FORMULAS CONTAR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECU-04\Documents\for_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SECU-04\migit\informatica\for_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B0412A-4032-4CC7-92B2-8A141DDDDB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E628DA20-8858-40C9-8803-0C1442417CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4140" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>LEGADO DE PERSONAL</t>
   </si>
@@ -100,6 +100,36 @@
   </si>
   <si>
     <t>total de pago</t>
+  </si>
+  <si>
+    <t>cantidad de empleads sin hijos</t>
+  </si>
+  <si>
+    <t>cantidad de empleados con hijos</t>
+  </si>
+  <si>
+    <t>cantidad de empleados de cargo auxiliar</t>
+  </si>
+  <si>
+    <t>cantidad de empleados con sueldo superior a 1,800</t>
+  </si>
+  <si>
+    <t>cantidad total de empleados</t>
+  </si>
+  <si>
+    <t>total de sueldos</t>
+  </si>
+  <si>
+    <t>cual es la edad mayor</t>
+  </si>
+  <si>
+    <t>cual es la edad menor</t>
+  </si>
+  <si>
+    <t>cantidad de empleados con sueldo menor a 2,000</t>
+  </si>
+  <si>
+    <t>cantidad de empleados con elb cargo secretaria</t>
   </si>
 </sst>
 </file>
@@ -284,10 +314,10 @@
     <xf numFmtId="44" fontId="0" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -593,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,16 +639,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -826,9 +856,84 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <f>SUM(E4:E10)</f>
         <v>15930</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <f>COUNTBLANK(G4:G10)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <f>COUNTA(G4:G10)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(D4:D10,"auxiliar")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18">
+        <f>MAX(H4:H10)</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19">
+        <f>MIN(H4:H10)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(D4:D10,"secretaria")</f>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
